--- a/document/数据库/数据/t_teacher.xlsx
+++ b/document/数据库/数据/t_teacher.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="78">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="79">
   <si>
     <t>job_number</t>
   </si>
@@ -302,6 +302,10 @@
   <si>
     <t>user_id</t>
     <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>id</t>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -420,7 +424,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center" wrapText="1"/>
@@ -438,6 +442,12 @@
       <alignment horizontal="justify" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="14" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -720,549 +730,605 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:S17"/>
+  <dimension ref="A1:T17"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="K12" sqref="K12"/>
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="11.6640625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="12" customWidth="1"/>
-    <col min="11" max="11" width="22.5546875" customWidth="1"/>
-    <col min="13" max="13" width="11.6640625" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="22.88671875" customWidth="1"/>
-    <col min="15" max="15" width="14.109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.6640625" customWidth="1"/>
+    <col min="11" max="11" width="12" customWidth="1"/>
+    <col min="12" max="12" width="22.5546875" customWidth="1"/>
+    <col min="14" max="14" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="22.88671875" customWidth="1"/>
+    <col min="16" max="16" width="14.109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" ht="47.4" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:20" ht="47.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="C1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="D1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="E1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="F1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="G1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="H1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="I1" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="J1" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="2" t="s">
+      <c r="K1" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="2" t="s">
+      <c r="L1" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="2" t="s">
+      <c r="M1" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="2" t="s">
+      <c r="N1" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="2" t="s">
+      <c r="O1" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="2" t="s">
+      <c r="P1" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="P1" s="2" t="s">
+      <c r="Q1" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" s="2" t="s">
+      <c r="R1" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="R1" s="5" t="s">
+      <c r="S1" s="5" t="s">
         <v>49</v>
       </c>
-      <c r="S1" s="5" t="s">
+      <c r="T1" s="5" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="2" spans="1:19" ht="31.8" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:20" ht="31.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="3">
         <v>6120103556</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="2">
+        <v>1</v>
+      </c>
+      <c r="C2" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="D2" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="E2" s="2" t="s">
         <v>59</v>
-      </c>
-      <c r="E2" s="2">
-        <v>0</v>
       </c>
       <c r="F2" s="2">
         <v>0</v>
       </c>
-      <c r="G2" s="2" t="s">
+      <c r="G2" s="2">
+        <v>0</v>
+      </c>
+      <c r="H2" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="H2" s="2" t="s">
+      <c r="I2" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="I2" s="2" t="s">
+      <c r="J2" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="J2" s="2" t="s">
+      <c r="K2" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="K2" s="2" t="s">
+      <c r="L2" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="L2" s="2" t="s">
+      <c r="M2" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="M2" s="6">
+      <c r="N2" s="6">
         <v>25774</v>
       </c>
-      <c r="N2" s="2" t="s">
+      <c r="O2" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="O2" s="2">
+      <c r="P2" s="2">
         <v>15717018019</v>
       </c>
-      <c r="P2" s="2"/>
       <c r="Q2" s="2"/>
       <c r="R2" s="2"/>
       <c r="S2" s="2"/>
-    </row>
-    <row r="3" spans="1:19" ht="31.8" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="T2" s="7">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="3" spans="1:20" ht="31.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="3">
         <v>6120101029</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="B3" s="2">
+        <v>2</v>
+      </c>
+      <c r="C3" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="C3" s="2" t="s">
+      <c r="D3" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="D3" s="2" t="s">
+      <c r="E3" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="E3" s="2">
+      <c r="F3" s="2">
         <v>1</v>
       </c>
-      <c r="F3" s="2">
+      <c r="G3" s="2">
         <v>0</v>
       </c>
-      <c r="G3" s="2" t="s">
+      <c r="H3" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="H3" s="2" t="s">
+      <c r="I3" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="I3" s="2" t="s">
+      <c r="J3" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="J3" s="2" t="s">
+      <c r="K3" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="K3" s="2" t="s">
+      <c r="L3" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="L3" s="2"/>
-      <c r="M3" s="6">
+      <c r="M3" s="2"/>
+      <c r="N3" s="6">
         <v>26536</v>
       </c>
-      <c r="N3" s="2" t="s">
+      <c r="O3" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="O3" s="2">
+      <c r="P3" s="2">
         <v>18817018019</v>
       </c>
-      <c r="P3" s="2"/>
       <c r="Q3" s="2"/>
       <c r="R3" s="2"/>
       <c r="S3" s="2"/>
-    </row>
-    <row r="4" spans="1:19" ht="47.4" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="T3" s="7">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="4" spans="1:20" ht="47.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="3">
         <v>6120100987</v>
       </c>
-      <c r="B4" s="2" t="s">
+      <c r="B4" s="2">
+        <v>3</v>
+      </c>
+      <c r="C4" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="C4" s="2" t="s">
+      <c r="D4" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="D4" s="2" t="s">
+      <c r="E4" s="2" t="s">
         <v>75</v>
-      </c>
-      <c r="E4" s="2">
-        <v>0</v>
       </c>
       <c r="F4" s="2">
         <v>0</v>
       </c>
-      <c r="G4" s="2" t="s">
+      <c r="G4" s="2">
+        <v>0</v>
+      </c>
+      <c r="H4" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="H4" s="2" t="s">
+      <c r="I4" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="I4" s="2" t="s">
+      <c r="J4" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="J4" s="2" t="s">
+      <c r="K4" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="K4" s="2" t="s">
+      <c r="L4" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="L4" s="2"/>
-      <c r="M4" s="6">
+      <c r="M4" s="2"/>
+      <c r="N4" s="6">
         <v>26073</v>
       </c>
-      <c r="N4" s="2" t="s">
+      <c r="O4" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="O4" s="2">
+      <c r="P4" s="2">
         <v>18817011208</v>
       </c>
-      <c r="P4" s="2"/>
       <c r="Q4" s="2"/>
       <c r="R4" s="2"/>
       <c r="S4" s="2"/>
-    </row>
-    <row r="5" spans="1:19" ht="63" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="T4" s="7">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20" ht="63" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="3">
         <v>6120103571</v>
       </c>
-      <c r="B5" s="2" t="s">
+      <c r="B5" s="2">
+        <v>4</v>
+      </c>
+      <c r="C5" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="C5" s="2" t="s">
+      <c r="D5" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="D5" s="2" t="s">
+      <c r="E5" s="2" t="s">
         <v>61</v>
-      </c>
-      <c r="E5" s="2">
-        <v>0</v>
       </c>
       <c r="F5" s="2">
         <v>0</v>
       </c>
-      <c r="G5" s="2" t="s">
+      <c r="G5" s="2">
+        <v>0</v>
+      </c>
+      <c r="H5" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="H5" s="2" t="s">
+      <c r="I5" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="I5" s="2" t="s">
+      <c r="J5" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="J5" s="2" t="s">
+      <c r="K5" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="K5" s="2" t="s">
+      <c r="L5" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="L5" s="2"/>
-      <c r="M5" s="6">
+      <c r="M5" s="2"/>
+      <c r="N5" s="6">
         <v>28585</v>
       </c>
-      <c r="N5" s="2" t="s">
+      <c r="O5" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="O5" s="2">
+      <c r="P5" s="2">
         <v>18817087119</v>
       </c>
-      <c r="P5" s="2"/>
       <c r="Q5" s="2"/>
       <c r="R5" s="2"/>
       <c r="S5" s="2"/>
-    </row>
-    <row r="6" spans="1:19" ht="31.8" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="T5" s="7">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20" ht="31.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="4">
         <v>6120110083</v>
       </c>
-      <c r="B6" s="2" t="s">
+      <c r="B6" s="2">
+        <v>5</v>
+      </c>
+      <c r="C6" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="C6" s="2" t="s">
+      <c r="D6" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="D6" s="2" t="s">
+      <c r="E6" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="E6" s="2">
+      <c r="F6" s="2">
         <v>1</v>
       </c>
-      <c r="F6" s="2">
+      <c r="G6" s="2">
         <v>0</v>
       </c>
-      <c r="G6" s="2" t="s">
+      <c r="H6" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="H6" s="2" t="s">
+      <c r="I6" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="I6" s="2" t="s">
+      <c r="J6" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="J6" s="2" t="s">
+      <c r="K6" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="K6" s="2" t="s">
+      <c r="L6" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="L6" s="2"/>
-      <c r="M6" s="6">
+      <c r="M6" s="2"/>
+      <c r="N6" s="6">
         <v>26847</v>
       </c>
-      <c r="N6" s="2" t="s">
+      <c r="O6" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="O6" s="2">
+      <c r="P6" s="2">
         <v>18817017129</v>
       </c>
-      <c r="P6" s="2"/>
       <c r="Q6" s="2"/>
       <c r="R6" s="2"/>
       <c r="S6" s="2"/>
-    </row>
-    <row r="7" spans="1:19" ht="31.8" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="T6" s="7">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20" ht="31.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="3">
         <v>6120104144</v>
       </c>
-      <c r="B7" s="2" t="s">
+      <c r="B7" s="2">
+        <v>6</v>
+      </c>
+      <c r="C7" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="C7" s="2" t="s">
+      <c r="D7" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="D7" s="2" t="s">
+      <c r="E7" s="2" t="s">
         <v>63</v>
-      </c>
-      <c r="E7" s="2">
-        <v>0</v>
       </c>
       <c r="F7" s="2">
         <v>0</v>
       </c>
-      <c r="G7" s="2" t="s">
+      <c r="G7" s="2">
+        <v>0</v>
+      </c>
+      <c r="H7" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="H7" s="2" t="s">
+      <c r="I7" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="I7" s="2" t="s">
+      <c r="J7" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="J7" s="2" t="s">
+      <c r="K7" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="K7" s="2"/>
       <c r="L7" s="2"/>
-      <c r="M7" s="6">
+      <c r="M7" s="2"/>
+      <c r="N7" s="6">
         <v>28919</v>
       </c>
-      <c r="N7" s="2" t="s">
+      <c r="O7" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>18812011236</v>
       </c>
-      <c r="P7" s="2"/>
       <c r="Q7" s="2"/>
       <c r="R7" s="2"/>
       <c r="S7" s="2"/>
-    </row>
-    <row r="8" spans="1:19" ht="31.8" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="T7" s="7">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20" ht="31.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="3">
         <v>6120101809</v>
       </c>
-      <c r="B8" s="2" t="s">
+      <c r="B8" s="2">
+        <v>7</v>
+      </c>
+      <c r="C8" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="C8" s="2" t="s">
+      <c r="D8" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="D8" s="2" t="s">
+      <c r="E8" s="2" t="s">
         <v>64</v>
-      </c>
-      <c r="E8" s="2">
-        <v>0</v>
       </c>
       <c r="F8" s="2">
         <v>0</v>
       </c>
-      <c r="G8" s="2" t="s">
+      <c r="G8" s="2">
+        <v>0</v>
+      </c>
+      <c r="H8" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="H8" s="2" t="s">
+      <c r="I8" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="I8" s="2" t="s">
+      <c r="J8" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="J8" s="2" t="s">
+      <c r="K8" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="K8" s="2"/>
       <c r="L8" s="2"/>
-      <c r="M8" s="6">
+      <c r="M8" s="2"/>
+      <c r="N8" s="6">
         <v>29448</v>
       </c>
-      <c r="N8" s="2" t="s">
+      <c r="O8" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="O8" s="2">
+      <c r="P8" s="2">
         <v>18812113698</v>
       </c>
-      <c r="P8" s="2"/>
       <c r="Q8" s="2"/>
       <c r="R8" s="2"/>
       <c r="S8" s="2"/>
-    </row>
-    <row r="9" spans="1:19" ht="31.8" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="T8" s="7">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20" ht="31.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="3">
         <v>6120103589</v>
       </c>
-      <c r="B9" s="2" t="s">
+      <c r="B9" s="2">
+        <v>8</v>
+      </c>
+      <c r="C9" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="C9" s="2" t="s">
+      <c r="D9" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="D9" s="2" t="s">
+      <c r="E9" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="E9" s="2">
+      <c r="F9" s="2">
         <v>1</v>
       </c>
-      <c r="F9" s="2">
+      <c r="G9" s="2">
         <v>0</v>
       </c>
-      <c r="G9" s="2" t="s">
+      <c r="H9" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="H9" s="2" t="s">
+      <c r="I9" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="I9" s="2" t="s">
+      <c r="J9" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="J9" s="2" t="s">
+      <c r="K9" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="K9" s="2"/>
       <c r="L9" s="2"/>
-      <c r="M9" s="6">
+      <c r="M9" s="2"/>
+      <c r="N9" s="6">
         <v>25671</v>
       </c>
-      <c r="N9" s="2" t="s">
+      <c r="O9" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="O9" s="2">
+      <c r="P9" s="2">
         <v>18822011236</v>
       </c>
-      <c r="P9" s="2"/>
       <c r="Q9" s="2"/>
       <c r="R9" s="2"/>
       <c r="S9" s="2"/>
-    </row>
-    <row r="10" spans="1:19" ht="31.8" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="T9" s="7">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20" ht="31.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="4">
         <v>6120103557</v>
       </c>
-      <c r="B10" s="2" t="s">
+      <c r="B10" s="2">
+        <v>9</v>
+      </c>
+      <c r="C10" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="C10" s="2" t="s">
+      <c r="D10" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="D10" s="2" t="s">
+      <c r="E10" s="2" t="s">
         <v>66</v>
-      </c>
-      <c r="E10" s="2">
-        <v>1</v>
       </c>
       <c r="F10" s="2">
         <v>1</v>
       </c>
-      <c r="G10" s="2" t="s">
+      <c r="G10" s="2">
+        <v>1</v>
+      </c>
+      <c r="H10" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="H10" s="2" t="s">
+      <c r="I10" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="I10" s="2" t="s">
+      <c r="J10" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="J10" s="2" t="s">
+      <c r="K10" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="K10" s="2"/>
       <c r="L10" s="2"/>
-      <c r="M10" s="6">
+      <c r="M10" s="2"/>
+      <c r="N10" s="6">
         <v>27228</v>
       </c>
-      <c r="N10" s="2" t="s">
+      <c r="O10" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="O10" s="2">
+      <c r="P10" s="2">
         <v>18712511236</v>
       </c>
-      <c r="P10" s="2"/>
       <c r="Q10" s="2"/>
       <c r="R10" s="2"/>
       <c r="S10" s="2"/>
-    </row>
-    <row r="11" spans="1:19" ht="16.2" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="T10" s="7">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20" ht="16.2" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="2"/>
-    </row>
-    <row r="12" spans="1:19" ht="16.2" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B11" s="8"/>
+    </row>
+    <row r="12" spans="1:20" ht="16.2" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="2"/>
-    </row>
-    <row r="13" spans="1:19" ht="16.2" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B12" s="8"/>
+    </row>
+    <row r="13" spans="1:20" ht="16.2" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="2"/>
-    </row>
-    <row r="14" spans="1:19" ht="16.2" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B13" s="8"/>
+    </row>
+    <row r="14" spans="1:20" ht="16.2" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="2"/>
-    </row>
-    <row r="15" spans="1:19" ht="16.2" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B14" s="8"/>
+    </row>
+    <row r="15" spans="1:20" ht="16.2" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="2"/>
-    </row>
-    <row r="16" spans="1:19" ht="16.2" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B15" s="8"/>
+    </row>
+    <row r="16" spans="1:20" ht="16.2" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="2"/>
-    </row>
-    <row r="17" spans="1:1" ht="16.2" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B16" s="8"/>
+    </row>
+    <row r="17" spans="1:2" ht="16.2" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A17" s="2"/>
+      <c r="B17" s="8"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="3" type="noConversion"/>
+  <phoneticPr fontId="4" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="N2" r:id="rId1"/>
-    <hyperlink ref="N3" r:id="rId2"/>
-    <hyperlink ref="N4" r:id="rId3"/>
-    <hyperlink ref="N5" r:id="rId4"/>
-    <hyperlink ref="N6" r:id="rId5"/>
-    <hyperlink ref="N7" r:id="rId6"/>
-    <hyperlink ref="N8" r:id="rId7"/>
-    <hyperlink ref="N9" r:id="rId8"/>
-    <hyperlink ref="N10" r:id="rId9"/>
+    <hyperlink ref="O2" r:id="rId1"/>
+    <hyperlink ref="O3" r:id="rId2"/>
+    <hyperlink ref="O4" r:id="rId3"/>
+    <hyperlink ref="O5" r:id="rId4"/>
+    <hyperlink ref="O6" r:id="rId5"/>
+    <hyperlink ref="O7" r:id="rId6"/>
+    <hyperlink ref="O8" r:id="rId7"/>
+    <hyperlink ref="O9" r:id="rId8"/>
+    <hyperlink ref="O10" r:id="rId9"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId10"/>

--- a/document/数据库/数据/t_teacher.xlsx
+++ b/document/数据库/数据/t_teacher.xlsx
@@ -304,7 +304,7 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>id</t>
+    <t>job_number</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
@@ -732,8 +732,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:T17"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -813,8 +813,8 @@
       <c r="A2" s="3">
         <v>6120103556</v>
       </c>
-      <c r="B2" s="2">
-        <v>1</v>
+      <c r="B2" s="3">
+        <v>6120103556</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>17</v>
@@ -869,8 +869,8 @@
       <c r="A3" s="3">
         <v>6120101029</v>
       </c>
-      <c r="B3" s="2">
-        <v>2</v>
+      <c r="B3" s="3">
+        <v>6120101029</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>18</v>
@@ -923,8 +923,8 @@
       <c r="A4" s="3">
         <v>6120100987</v>
       </c>
-      <c r="B4" s="2">
-        <v>3</v>
+      <c r="B4" s="3">
+        <v>6120100987</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>19</v>
@@ -977,8 +977,8 @@
       <c r="A5" s="3">
         <v>6120103571</v>
       </c>
-      <c r="B5" s="2">
-        <v>4</v>
+      <c r="B5" s="3">
+        <v>6120103571</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>20</v>
@@ -1031,8 +1031,8 @@
       <c r="A6" s="4">
         <v>6120110083</v>
       </c>
-      <c r="B6" s="2">
-        <v>5</v>
+      <c r="B6" s="4">
+        <v>6120110083</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>21</v>
@@ -1085,8 +1085,8 @@
       <c r="A7" s="3">
         <v>6120104144</v>
       </c>
-      <c r="B7" s="2">
-        <v>6</v>
+      <c r="B7" s="3">
+        <v>6120104144</v>
       </c>
       <c r="C7" s="2" t="s">
         <v>22</v>
@@ -1137,8 +1137,8 @@
       <c r="A8" s="3">
         <v>6120101809</v>
       </c>
-      <c r="B8" s="2">
-        <v>7</v>
+      <c r="B8" s="3">
+        <v>6120101809</v>
       </c>
       <c r="C8" s="2" t="s">
         <v>23</v>
@@ -1189,8 +1189,8 @@
       <c r="A9" s="3">
         <v>6120103589</v>
       </c>
-      <c r="B9" s="2">
-        <v>8</v>
+      <c r="B9" s="3">
+        <v>6120103589</v>
       </c>
       <c r="C9" s="2" t="s">
         <v>24</v>
@@ -1241,8 +1241,8 @@
       <c r="A10" s="4">
         <v>6120103557</v>
       </c>
-      <c r="B10" s="2">
-        <v>9</v>
+      <c r="B10" s="4">
+        <v>6120103557</v>
       </c>
       <c r="C10" s="2" t="s">
         <v>25</v>
@@ -1289,32 +1289,32 @@
         <v>230</v>
       </c>
     </row>
-    <row r="11" spans="1:20" ht="16.2" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="2"/>
+    <row r="11" spans="1:20" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="A11" s="8"/>
       <c r="B11" s="8"/>
     </row>
-    <row r="12" spans="1:20" ht="16.2" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="2"/>
+    <row r="12" spans="1:20" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="A12" s="8"/>
       <c r="B12" s="8"/>
     </row>
-    <row r="13" spans="1:20" ht="16.2" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="2"/>
+    <row r="13" spans="1:20" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="A13" s="8"/>
       <c r="B13" s="8"/>
     </row>
-    <row r="14" spans="1:20" ht="16.2" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="2"/>
+    <row r="14" spans="1:20" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="A14" s="8"/>
       <c r="B14" s="8"/>
     </row>
-    <row r="15" spans="1:20" ht="16.2" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="2"/>
+    <row r="15" spans="1:20" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="A15" s="8"/>
       <c r="B15" s="8"/>
     </row>
-    <row r="16" spans="1:20" ht="16.2" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="2"/>
+    <row r="16" spans="1:20" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="A16" s="8"/>
       <c r="B16" s="8"/>
     </row>
-    <row r="17" spans="1:2" ht="16.2" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="2"/>
+    <row r="17" spans="1:2" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="A17" s="8"/>
       <c r="B17" s="8"/>
     </row>
   </sheetData>

--- a/document/数据库/数据/t_teacher.xlsx
+++ b/document/数据库/数据/t_teacher.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="79">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="78">
   <si>
     <t>job_number</t>
   </si>
@@ -73,174 +73,174 @@
   </si>
   <si>
     <t>薛静锋</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>马锐</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>赵小林</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>王勇</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>彭图</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>胡晶晶</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>单纯</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>刘振岩</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>张继</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>教授</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>副教授</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>副教授</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>讲师</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>讲师</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>硕士生导师</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>硕士生导师</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>硕士生导师</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>硕士生导师</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>博士生导师
 硕士生导师</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>实验室主任</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>软件工程专业本科教学责任教授
 软件工程系副主任</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>理论研究所副所长(科研)</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>软件理论研究所教工党支部书记
 软件理论研究所常务副所长（教学）</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>软件学院教代会主席</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>软件学院教学副院长
 软件评测中心主任</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>China</t>
   </si>
   <si>
     <t>China</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>China</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>北京理工大学</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>北京理工大学</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>北京理工大学</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>北京理工大学</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>photo</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>335792242@bit.edu.cn</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>771091480@bit.edu.cn</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>15717018019@bit.edu.cn</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>18810211200@bit.edu.cn</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>334498541@bit.edu.cn</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>987563214@bit.edu.cn</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>147852369@bit.edu.cn</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>963852741@bit.edu.cn</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>1308249554@bit.edu.cn</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t xml:space="preserve">Xue </t>
@@ -289,43 +289,31 @@
   </si>
   <si>
     <t>Xiaolin</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t xml:space="preserve">Zhao </t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>Yong</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>user_id</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>job_number</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>id</t>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
       <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <family val="3"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -358,7 +346,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="5">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -373,39 +361,9 @@
       <right style="medium">
         <color rgb="FF000000"/>
       </right>
-      <top style="medium">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="medium">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="medium">
-        <color rgb="FF000000"/>
-      </right>
       <top/>
       <bottom style="medium">
         <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
       </bottom>
       <diagonal/>
     </border>
@@ -424,30 +382,18 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="14" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -730,16 +676,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:T17"/>
+  <dimension ref="A1:S17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="11.6640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.6640625" customWidth="1"/>
+    <col min="2" max="2" width="12.88671875" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="12" customWidth="1"/>
     <col min="12" max="12" width="22.5546875" customWidth="1"/>
     <col min="14" max="14" width="11.6640625" bestFit="1" customWidth="1"/>
@@ -747,578 +692,541 @@
     <col min="16" max="16" width="14.109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" ht="47.4" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:19" ht="47.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="C1" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="F1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="G1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="H1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="I1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="J1" s="2" t="s">
+      <c r="J1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="K1" s="2" t="s">
+      <c r="K1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="L1" s="2" t="s">
+      <c r="L1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="M1" s="2" t="s">
+      <c r="M1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="N1" s="2" t="s">
+      <c r="N1" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="O1" s="2" t="s">
+      <c r="O1" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="P1" s="2" t="s">
+      <c r="P1" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="Q1" s="2" t="s">
+      <c r="Q1" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="R1" s="2" t="s">
+      <c r="R1" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="S1" s="5" t="s">
+      <c r="S1" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="T1" s="5" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="2" spans="1:20" ht="31.8" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="3">
+    </row>
+    <row r="2" spans="1:19" ht="31.8" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="1">
+        <v>222</v>
+      </c>
+      <c r="B2" s="1">
         <v>6120103556</v>
       </c>
-      <c r="B2" s="3">
-        <v>6120103556</v>
-      </c>
-      <c r="C2" s="2" t="s">
+      <c r="C2" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="D2" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="E2" s="2" t="s">
+      <c r="E2" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="F2" s="2">
-        <v>0</v>
-      </c>
-      <c r="G2" s="2">
-        <v>0</v>
-      </c>
-      <c r="H2" s="2" t="s">
+      <c r="F2" s="1">
+        <v>0</v>
+      </c>
+      <c r="G2" s="1">
+        <v>0</v>
+      </c>
+      <c r="H2" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="I2" s="2" t="s">
+      <c r="I2" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="J2" s="2" t="s">
+      <c r="J2" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="K2" s="2" t="s">
+      <c r="K2" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="L2" s="2" t="s">
+      <c r="L2" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="M2" s="2" t="s">
+      <c r="M2" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="N2" s="6">
+      <c r="N2" s="3">
         <v>25774</v>
       </c>
-      <c r="O2" s="2" t="s">
+      <c r="O2" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="P2" s="2">
+      <c r="P2" s="1">
         <v>15717018019</v>
       </c>
-      <c r="Q2" s="2"/>
-      <c r="R2" s="2"/>
-      <c r="S2" s="2"/>
-      <c r="T2" s="7">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="3" spans="1:20" ht="31.8" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="3">
+      <c r="Q2" s="1"/>
+      <c r="R2" s="1"/>
+      <c r="S2" s="1"/>
+    </row>
+    <row r="3" spans="1:19" ht="31.8" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="1">
+        <v>223</v>
+      </c>
+      <c r="B3" s="1">
         <v>6120101029</v>
       </c>
-      <c r="B3" s="3">
-        <v>6120101029</v>
-      </c>
-      <c r="C3" s="2" t="s">
+      <c r="C3" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="D3" s="2" t="s">
+      <c r="D3" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="E3" s="2" t="s">
+      <c r="E3" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="F3" s="2">
+      <c r="F3" s="1">
         <v>1</v>
       </c>
-      <c r="G3" s="2">
-        <v>0</v>
-      </c>
-      <c r="H3" s="2" t="s">
+      <c r="G3" s="1">
+        <v>0</v>
+      </c>
+      <c r="H3" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="I3" s="2" t="s">
+      <c r="I3" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="J3" s="2" t="s">
+      <c r="J3" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="K3" s="2" t="s">
+      <c r="K3" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="L3" s="2" t="s">
+      <c r="L3" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="M3" s="2"/>
-      <c r="N3" s="6">
+      <c r="M3" s="1"/>
+      <c r="N3" s="3">
         <v>26536</v>
       </c>
-      <c r="O3" s="2" t="s">
+      <c r="O3" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="P3" s="2">
+      <c r="P3" s="1">
         <v>18817018019</v>
       </c>
-      <c r="Q3" s="2"/>
-      <c r="R3" s="2"/>
-      <c r="S3" s="2"/>
-      <c r="T3" s="7">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="4" spans="1:20" ht="47.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="3">
+      <c r="Q3" s="1"/>
+      <c r="R3" s="1"/>
+      <c r="S3" s="1"/>
+    </row>
+    <row r="4" spans="1:19" ht="47.4" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="1">
+        <v>224</v>
+      </c>
+      <c r="B4" s="1">
         <v>6120100987</v>
       </c>
-      <c r="B4" s="3">
-        <v>6120100987</v>
-      </c>
-      <c r="C4" s="2" t="s">
+      <c r="C4" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="D4" s="2" t="s">
+      <c r="D4" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="E4" s="2" t="s">
+      <c r="E4" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="F4" s="2">
-        <v>0</v>
-      </c>
-      <c r="G4" s="2">
-        <v>0</v>
-      </c>
-      <c r="H4" s="2" t="s">
+      <c r="F4" s="1">
+        <v>0</v>
+      </c>
+      <c r="G4" s="1">
+        <v>0</v>
+      </c>
+      <c r="H4" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="I4" s="2" t="s">
+      <c r="I4" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="J4" s="2" t="s">
+      <c r="J4" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="K4" s="2" t="s">
+      <c r="K4" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="L4" s="2" t="s">
+      <c r="L4" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="M4" s="2"/>
-      <c r="N4" s="6">
+      <c r="M4" s="1"/>
+      <c r="N4" s="3">
         <v>26073</v>
       </c>
-      <c r="O4" s="2" t="s">
+      <c r="O4" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="P4" s="2">
+      <c r="P4" s="1">
         <v>18817011208</v>
       </c>
-      <c r="Q4" s="2"/>
-      <c r="R4" s="2"/>
-      <c r="S4" s="2"/>
-      <c r="T4" s="7">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="5" spans="1:20" ht="63" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="3">
+      <c r="Q4" s="1"/>
+      <c r="R4" s="1"/>
+      <c r="S4" s="1"/>
+    </row>
+    <row r="5" spans="1:19" ht="63" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="1">
+        <v>225</v>
+      </c>
+      <c r="B5" s="1">
         <v>6120103571</v>
       </c>
-      <c r="B5" s="3">
-        <v>6120103571</v>
-      </c>
-      <c r="C5" s="2" t="s">
+      <c r="C5" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="D5" s="2" t="s">
+      <c r="D5" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="E5" s="2" t="s">
+      <c r="E5" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="F5" s="2">
-        <v>0</v>
-      </c>
-      <c r="G5" s="2">
-        <v>0</v>
-      </c>
-      <c r="H5" s="2" t="s">
+      <c r="F5" s="1">
+        <v>0</v>
+      </c>
+      <c r="G5" s="1">
+        <v>0</v>
+      </c>
+      <c r="H5" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="I5" s="2" t="s">
+      <c r="I5" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="J5" s="2" t="s">
+      <c r="J5" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="K5" s="2" t="s">
+      <c r="K5" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="L5" s="2" t="s">
+      <c r="L5" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="M5" s="2"/>
-      <c r="N5" s="6">
+      <c r="M5" s="1"/>
+      <c r="N5" s="3">
         <v>28585</v>
       </c>
-      <c r="O5" s="2" t="s">
+      <c r="O5" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="P5" s="2">
+      <c r="P5" s="1">
         <v>18817087119</v>
       </c>
-      <c r="Q5" s="2"/>
-      <c r="R5" s="2"/>
-      <c r="S5" s="2"/>
-      <c r="T5" s="7">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="6" spans="1:20" ht="31.8" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="4">
+      <c r="Q5" s="1"/>
+      <c r="R5" s="1"/>
+      <c r="S5" s="1"/>
+    </row>
+    <row r="6" spans="1:19" ht="31.8" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="1">
+        <v>226</v>
+      </c>
+      <c r="B6" s="1">
         <v>6120110083</v>
       </c>
-      <c r="B6" s="4">
-        <v>6120110083</v>
-      </c>
-      <c r="C6" s="2" t="s">
+      <c r="C6" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="D6" s="2" t="s">
+      <c r="D6" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="E6" s="2" t="s">
+      <c r="E6" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="F6" s="2">
+      <c r="F6" s="1">
         <v>1</v>
       </c>
-      <c r="G6" s="2">
-        <v>0</v>
-      </c>
-      <c r="H6" s="2" t="s">
+      <c r="G6" s="1">
+        <v>0</v>
+      </c>
+      <c r="H6" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="I6" s="2" t="s">
+      <c r="I6" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="J6" s="2" t="s">
+      <c r="J6" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="K6" s="2" t="s">
+      <c r="K6" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="L6" s="2" t="s">
+      <c r="L6" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="M6" s="2"/>
-      <c r="N6" s="6">
+      <c r="M6" s="1"/>
+      <c r="N6" s="3">
         <v>26847</v>
       </c>
-      <c r="O6" s="2" t="s">
+      <c r="O6" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="P6" s="2">
+      <c r="P6" s="1">
         <v>18817017129</v>
       </c>
-      <c r="Q6" s="2"/>
-      <c r="R6" s="2"/>
-      <c r="S6" s="2"/>
-      <c r="T6" s="7">
-        <v>226</v>
-      </c>
-    </row>
-    <row r="7" spans="1:20" ht="31.8" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="3">
+      <c r="Q6" s="1"/>
+      <c r="R6" s="1"/>
+      <c r="S6" s="1"/>
+    </row>
+    <row r="7" spans="1:19" ht="31.8" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="1">
+        <v>227</v>
+      </c>
+      <c r="B7" s="1">
         <v>6120104144</v>
       </c>
-      <c r="B7" s="3">
-        <v>6120104144</v>
-      </c>
-      <c r="C7" s="2" t="s">
+      <c r="C7" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="D7" s="2" t="s">
+      <c r="D7" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="E7" s="2" t="s">
+      <c r="E7" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="F7" s="2">
-        <v>0</v>
-      </c>
-      <c r="G7" s="2">
-        <v>0</v>
-      </c>
-      <c r="H7" s="2" t="s">
+      <c r="F7" s="1">
+        <v>0</v>
+      </c>
+      <c r="G7" s="1">
+        <v>0</v>
+      </c>
+      <c r="H7" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="I7" s="2" t="s">
+      <c r="I7" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="J7" s="2" t="s">
+      <c r="J7" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="K7" s="2" t="s">
+      <c r="K7" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="L7" s="2"/>
-      <c r="M7" s="2"/>
-      <c r="N7" s="6">
+      <c r="L7" s="1"/>
+      <c r="M7" s="1"/>
+      <c r="N7" s="3">
         <v>28919</v>
       </c>
-      <c r="O7" s="2" t="s">
+      <c r="O7" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="P7" s="2">
+      <c r="P7" s="1">
         <v>18812011236</v>
       </c>
-      <c r="Q7" s="2"/>
-      <c r="R7" s="2"/>
-      <c r="S7" s="2"/>
-      <c r="T7" s="7">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="8" spans="1:20" ht="31.8" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="3">
+      <c r="Q7" s="1"/>
+      <c r="R7" s="1"/>
+      <c r="S7" s="1"/>
+    </row>
+    <row r="8" spans="1:19" ht="31.8" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="1">
+        <v>228</v>
+      </c>
+      <c r="B8" s="1">
         <v>6120101809</v>
       </c>
-      <c r="B8" s="3">
-        <v>6120101809</v>
-      </c>
-      <c r="C8" s="2" t="s">
+      <c r="C8" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="D8" s="2" t="s">
+      <c r="D8" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="E8" s="2" t="s">
+      <c r="E8" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="F8" s="2">
-        <v>0</v>
-      </c>
-      <c r="G8" s="2">
-        <v>0</v>
-      </c>
-      <c r="H8" s="2" t="s">
+      <c r="F8" s="1">
+        <v>0</v>
+      </c>
+      <c r="G8" s="1">
+        <v>0</v>
+      </c>
+      <c r="H8" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="I8" s="2" t="s">
+      <c r="I8" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="J8" s="2" t="s">
+      <c r="J8" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="K8" s="2" t="s">
+      <c r="K8" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="L8" s="2"/>
-      <c r="M8" s="2"/>
-      <c r="N8" s="6">
+      <c r="L8" s="1"/>
+      <c r="M8" s="1"/>
+      <c r="N8" s="3">
         <v>29448</v>
       </c>
-      <c r="O8" s="2" t="s">
+      <c r="O8" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="P8" s="2">
+      <c r="P8" s="1">
         <v>18812113698</v>
       </c>
-      <c r="Q8" s="2"/>
-      <c r="R8" s="2"/>
-      <c r="S8" s="2"/>
-      <c r="T8" s="7">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="9" spans="1:20" ht="31.8" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="3">
+      <c r="Q8" s="1"/>
+      <c r="R8" s="1"/>
+      <c r="S8" s="1"/>
+    </row>
+    <row r="9" spans="1:19" ht="31.8" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="1">
+        <v>229</v>
+      </c>
+      <c r="B9" s="1">
         <v>6120103589</v>
       </c>
-      <c r="B9" s="3">
-        <v>6120103589</v>
-      </c>
-      <c r="C9" s="2" t="s">
+      <c r="C9" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="D9" s="2" t="s">
+      <c r="D9" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="E9" s="2" t="s">
+      <c r="E9" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="F9" s="2">
+      <c r="F9" s="1">
         <v>1</v>
       </c>
-      <c r="G9" s="2">
-        <v>0</v>
-      </c>
-      <c r="H9" s="2" t="s">
+      <c r="G9" s="1">
+        <v>0</v>
+      </c>
+      <c r="H9" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="I9" s="2" t="s">
+      <c r="I9" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="J9" s="2" t="s">
+      <c r="J9" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="K9" s="2" t="s">
+      <c r="K9" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="L9" s="2"/>
-      <c r="M9" s="2"/>
-      <c r="N9" s="6">
+      <c r="L9" s="1"/>
+      <c r="M9" s="1"/>
+      <c r="N9" s="3">
         <v>25671</v>
       </c>
-      <c r="O9" s="2" t="s">
+      <c r="O9" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="P9" s="2">
+      <c r="P9" s="1">
         <v>18822011236</v>
       </c>
-      <c r="Q9" s="2"/>
-      <c r="R9" s="2"/>
-      <c r="S9" s="2"/>
-      <c r="T9" s="7">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="10" spans="1:20" ht="31.8" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="4">
+      <c r="Q9" s="1"/>
+      <c r="R9" s="1"/>
+      <c r="S9" s="1"/>
+    </row>
+    <row r="10" spans="1:19" ht="31.8" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="1">
+        <v>230</v>
+      </c>
+      <c r="B10" s="1">
         <v>6120103557</v>
       </c>
-      <c r="B10" s="4">
-        <v>6120103557</v>
-      </c>
-      <c r="C10" s="2" t="s">
+      <c r="C10" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="D10" s="2" t="s">
+      <c r="D10" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="E10" s="2" t="s">
+      <c r="E10" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="F10" s="2">
+      <c r="F10" s="1">
         <v>1</v>
       </c>
-      <c r="G10" s="2">
+      <c r="G10" s="1">
         <v>1</v>
       </c>
-      <c r="H10" s="2" t="s">
+      <c r="H10" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="I10" s="2" t="s">
+      <c r="I10" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="J10" s="2" t="s">
+      <c r="J10" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="K10" s="2" t="s">
+      <c r="K10" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="L10" s="2"/>
-      <c r="M10" s="2"/>
-      <c r="N10" s="6">
+      <c r="L10" s="1"/>
+      <c r="M10" s="1"/>
+      <c r="N10" s="3">
         <v>27228</v>
       </c>
-      <c r="O10" s="2" t="s">
+      <c r="O10" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="P10" s="2">
+      <c r="P10" s="1">
         <v>18712511236</v>
       </c>
-      <c r="Q10" s="2"/>
-      <c r="R10" s="2"/>
-      <c r="S10" s="2"/>
-      <c r="T10" s="7">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="11" spans="1:20" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A11" s="8"/>
-      <c r="B11" s="8"/>
-    </row>
-    <row r="12" spans="1:20" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A12" s="8"/>
-      <c r="B12" s="8"/>
-    </row>
-    <row r="13" spans="1:20" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A13" s="8"/>
-      <c r="B13" s="8"/>
-    </row>
-    <row r="14" spans="1:20" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A14" s="8"/>
-      <c r="B14" s="8"/>
-    </row>
-    <row r="15" spans="1:20" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A15" s="8"/>
-      <c r="B15" s="8"/>
-    </row>
-    <row r="16" spans="1:20" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A16" s="8"/>
-      <c r="B16" s="8"/>
-    </row>
-    <row r="17" spans="1:2" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A17" s="8"/>
-      <c r="B17" s="8"/>
+      <c r="Q10" s="1"/>
+      <c r="R10" s="1"/>
+      <c r="S10" s="1"/>
+    </row>
+    <row r="11" spans="1:19" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="B11" s="4"/>
+    </row>
+    <row r="12" spans="1:19" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="B12" s="4"/>
+    </row>
+    <row r="13" spans="1:19" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="B13" s="4"/>
+    </row>
+    <row r="14" spans="1:19" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="B14" s="4"/>
+    </row>
+    <row r="15" spans="1:19" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="B15" s="4"/>
+    </row>
+    <row r="16" spans="1:19" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="B16" s="4"/>
+    </row>
+    <row r="17" spans="2:2" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="B17" s="4"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="4" type="noConversion"/>
+  <phoneticPr fontId="3" type="noConversion"/>
   <hyperlinks>
     <hyperlink ref="O2" r:id="rId1"/>
     <hyperlink ref="O3" r:id="rId2"/>
